--- a/data/05.mayo/listado_mayo_con_pdf.xlsx
+++ b/data/05.mayo/listado_mayo_con_pdf.xlsx
@@ -11,19 +11,19 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="XZg07Fiqg+FOeCG6/mmSML+oNWYn/Ljmt9wC5hjjxjc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="pHpAzYo92AGjRRm45vyal1582UU+NAtstWyLk9vsUUo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="482">
   <si>
     <t>NºOrden</t>
   </si>
   <si>
-    <t>Archivos PDF</t>
+    <t>Archivo PDF</t>
   </si>
   <si>
     <t>N.Referencia</t>
@@ -143,6 +143,9 @@
     <t>Falk &amp; Ross Group Spain S.L.U.</t>
   </si>
   <si>
+    <t>PLAUSIVE 294-2022.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">  294/2022</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
     <t>11/05</t>
   </si>
   <si>
+    <t>BOSQUE HOTELEROS 00525-2022.pdf</t>
+  </si>
+  <si>
     <t>00525/2022</t>
   </si>
   <si>
@@ -1370,6 +1376,9 @@
     <t xml:space="preserve"> 220111097</t>
   </si>
   <si>
+    <t>TIPSA FACTURA 2022015815.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22/015815</t>
   </si>
   <si>
@@ -1424,7 +1433,13 @@
     <t>2205135249</t>
   </si>
   <si>
+    <t>TIPSA FACTURA 2022015816.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22/015816</t>
+  </si>
+  <si>
+    <t>ZINTEX Z_22_0536.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">  Z22_0536</t>
@@ -1835,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="4">
         <v>542.0</v>
       </c>
@@ -1876,7 +1891,7 @@
         <v>48.99</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="4">
         <v>542.0</v>
       </c>
@@ -1917,7 +1932,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="4">
         <v>543.0</v>
       </c>
@@ -1958,7 +1973,7 @@
         <v>95.59</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="4">
         <v>544.0</v>
       </c>
@@ -1999,7 +2014,7 @@
         <v>52.71</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="4">
         <v>545.0</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="4">
         <v>546.0</v>
       </c>
@@ -2085,23 +2100,26 @@
       <c r="A8" s="4">
         <v>547.0</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" s="4">
         <v>1972.0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="I8" s="12">
         <v>42.0</v>
@@ -2119,30 +2137,30 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="4">
         <v>548.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
         <v>2031.0</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="12">
         <v>113.44</v>
@@ -2160,33 +2178,33 @@
         <v>137.26</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="4">
         <v>549.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4">
         <v>2050.0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="12">
         <v>16.73</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="12">
         <v>1.67</v>
@@ -2198,30 +2216,30 @@
         <v>18.4</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="4">
         <v>550.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4">
         <v>2055.0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" s="12">
         <v>290.0</v>
@@ -2239,30 +2257,30 @@
         <v>350.9</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="4">
         <v>551.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4">
         <v>2476.0</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="12">
         <v>819.2</v>
@@ -2280,30 +2298,30 @@
         <v>991.23</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="4">
         <v>552.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4">
         <v>2027.0</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I13" s="12">
         <v>130.44</v>
@@ -2321,33 +2339,33 @@
         <v>157.83</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="4">
         <v>553.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4">
         <v>2029.0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" s="12">
         <v>16.0</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="12">
         <v>1.6</v>
@@ -2359,30 +2377,30 @@
         <v>17.6</v>
       </c>
     </row>
-    <row r="15" ht="15.75" hidden="1" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>554.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4">
         <v>2053.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="12">
         <v>418.93</v>
@@ -2400,30 +2418,30 @@
         <v>506.91</v>
       </c>
     </row>
-    <row r="16" ht="15.75" hidden="1" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>555.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4">
         <v>2058.0</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="I16" s="12">
         <v>128.73</v>
@@ -2441,33 +2459,33 @@
         <v>155.76</v>
       </c>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4">
         <v>556.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="4">
         <v>2051.0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="12">
         <v>8.18</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" s="12">
         <v>0.82</v>
@@ -2479,30 +2497,30 @@
         <v>9.0</v>
       </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>557.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4">
         <v>2054.0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I18" s="12">
         <v>322.75</v>
@@ -2520,30 +2538,30 @@
         <v>390.53</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4">
         <v>558.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4">
         <v>2057.0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" s="12">
         <v>24.76</v>
@@ -2561,30 +2579,30 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>559.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4">
         <v>2059.0</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="I20" s="12">
         <v>380.87</v>
@@ -2602,30 +2620,30 @@
         <v>380.87</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>560.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" s="4">
         <v>2074.0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="12">
         <v>20.04</v>
@@ -2643,30 +2661,30 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>561.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C22" s="4">
         <v>2056.0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I22" s="12">
         <v>1058.65</v>
@@ -2684,30 +2702,30 @@
         <v>1280.97</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4">
         <v>562.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" s="4">
         <v>2075.0</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="I23" s="12">
         <v>2949.25</v>
@@ -2725,30 +2743,30 @@
         <v>3568.59</v>
       </c>
     </row>
-    <row r="24" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
         <v>563.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" s="4">
         <v>2076.0</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I24" s="12">
         <v>22.21</v>
@@ -2766,30 +2784,30 @@
         <v>26.87</v>
       </c>
     </row>
-    <row r="25" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4">
         <v>564.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" s="4">
         <v>2086.0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I25" s="12">
         <v>19.5</v>
@@ -2807,30 +2825,30 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="26" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4">
         <v>565.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" s="4">
         <v>2097.0</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" s="12">
         <v>278.72</v>
@@ -2848,30 +2866,30 @@
         <v>337.25</v>
       </c>
     </row>
-    <row r="27" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4">
         <v>566.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27" s="4">
         <v>2102.0</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I27" s="12">
         <v>306.5</v>
@@ -2889,27 +2907,27 @@
         <v>370.87</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4">
         <v>567.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4">
         <v>2118.0</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I28" s="12">
         <v>78.12</v>
@@ -2927,30 +2945,30 @@
         <v>94.53</v>
       </c>
     </row>
-    <row r="29" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4">
         <v>568.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4">
         <v>2120.0</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I29" s="12">
         <v>1429.15</v>
@@ -2968,36 +2986,36 @@
         <v>1729.27</v>
       </c>
     </row>
-    <row r="30" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4">
         <v>569.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" s="4">
         <v>2233.0</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I30" s="12">
         <v>21.74</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30" s="12">
         <v>2.17</v>
@@ -3009,21 +3027,21 @@
         <v>23.91</v>
       </c>
     </row>
-    <row r="31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4">
         <v>570.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="4">
         <v>2604.0</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>29</v>
@@ -3050,30 +3068,30 @@
         <v>226.33</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>571.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" s="4">
         <v>2609.0</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I32" s="12">
         <v>280.0</v>
@@ -3091,30 +3109,30 @@
         <v>338.8</v>
       </c>
     </row>
-    <row r="33" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4">
         <v>572.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4">
         <v>2093.0</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I33" s="12">
         <v>90.24</v>
@@ -3132,33 +3150,33 @@
         <v>109.19</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4">
         <v>573.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="4">
         <v>2094.0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I34" s="12">
         <v>15.45</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34" s="12">
         <v>1.55</v>
@@ -3170,21 +3188,21 @@
         <v>17.0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4">
         <v>574.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" s="4">
         <v>2095.0</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>29</v>
@@ -3211,21 +3229,21 @@
         <v>84.48</v>
       </c>
     </row>
-    <row r="36" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4">
         <v>575.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C36" s="4">
         <v>2096.0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>38</v>
@@ -3252,30 +3270,30 @@
         <v>42.86</v>
       </c>
     </row>
-    <row r="37" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4">
         <v>576.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37" s="4">
         <v>2119.0</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I37" s="12">
         <v>7.7</v>
@@ -3293,30 +3311,30 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="38" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4">
         <v>577.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C38" s="4">
         <v>2121.0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I38" s="12">
         <v>21.2</v>
@@ -3334,30 +3352,30 @@
         <v>25.65</v>
       </c>
     </row>
-    <row r="39" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4">
         <v>578.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="4">
         <v>2123.0</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="I39" s="12">
         <v>57.37</v>
@@ -3375,30 +3393,30 @@
         <v>69.42</v>
       </c>
     </row>
-    <row r="40" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4">
         <v>579.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4">
         <v>2145.0</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I40" s="12">
         <v>28.92</v>
@@ -3416,30 +3434,30 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4">
         <v>580.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" s="4">
         <v>2150.0</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="I41" s="12">
         <v>730.74</v>
@@ -3457,30 +3475,30 @@
         <v>884.2</v>
       </c>
     </row>
-    <row r="42" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4">
         <v>581.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C42" s="4">
         <v>2282.0</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I42" s="12">
         <v>68.07</v>
@@ -3498,30 +3516,30 @@
         <v>82.36</v>
       </c>
     </row>
-    <row r="43" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4">
         <v>582.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="4">
         <v>2114.0</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I43" s="12">
         <v>585.0</v>
@@ -3539,33 +3557,33 @@
         <v>596.7</v>
       </c>
     </row>
-    <row r="44" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4">
         <v>583.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C44" s="4">
         <v>2116.0</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I44" s="12">
         <v>9.27</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44" s="12">
         <v>0.93</v>
@@ -3577,33 +3595,33 @@
         <v>10.2</v>
       </c>
     </row>
-    <row r="45" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4">
         <v>584.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C45" s="4">
         <v>2117.0</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I45" s="12">
         <v>7.82</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45" s="12">
         <v>0.78</v>
@@ -3615,30 +3633,30 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="46" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4">
         <v>585.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C46" s="4">
         <v>2149.0</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I46" s="12">
         <v>5733.5</v>
@@ -3656,30 +3674,30 @@
         <v>6937.54</v>
       </c>
     </row>
-    <row r="47" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4">
         <v>586.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C47" s="4">
         <v>2144.0</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I47" s="12">
         <v>129.9</v>
@@ -3701,26 +3719,29 @@
       <c r="A48" s="4">
         <v>587.0</v>
       </c>
+      <c r="B48" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="C48" s="4">
         <v>2146.0</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I48" s="12">
         <v>5.91</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K48" s="12">
         <v>0.59</v>
@@ -3732,30 +3753,30 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="49" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4">
         <v>588.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C49" s="4">
         <v>2163.0</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I49" s="12">
         <v>94.3</v>
@@ -3773,21 +3794,21 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="50" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4">
         <v>589.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C50" s="4">
         <v>2160.0</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>29</v>
@@ -3814,21 +3835,21 @@
         <v>43.92</v>
       </c>
     </row>
-    <row r="51" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4">
         <v>590.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C51" s="4">
         <v>2162.0</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>38</v>
@@ -3855,30 +3876,30 @@
         <v>-42.86</v>
       </c>
     </row>
-    <row r="52" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4">
         <v>591.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C52" s="4">
         <v>2200.0</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" s="12">
         <v>211.15</v>
@@ -3896,30 +3917,30 @@
         <v>255.49</v>
       </c>
     </row>
-    <row r="53" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4">
         <v>592.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C53" s="4">
         <v>2202.0</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I53" s="12">
         <v>100.0</v>
@@ -3937,30 +3958,30 @@
         <v>121.0</v>
       </c>
     </row>
-    <row r="54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4">
         <v>593.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C54" s="4">
         <v>2207.0</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I54" s="12">
         <v>49.83</v>
@@ -3978,30 +3999,30 @@
         <v>60.29</v>
       </c>
     </row>
-    <row r="55" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4">
         <v>594.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C55" s="4">
         <v>2208.0</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="I55" s="12">
         <v>59.79</v>
@@ -4019,33 +4040,33 @@
         <v>72.35</v>
       </c>
     </row>
-    <row r="56" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4">
         <v>595.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C56" s="4">
         <v>2231.0</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I56" s="12">
         <v>5.73</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K56" s="12">
         <v>0.57</v>
@@ -4057,27 +4078,27 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="57" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4">
         <v>596.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C57" s="4">
         <v>2235.0</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I57" s="12">
         <v>16.11</v>
@@ -4095,30 +4116,30 @@
         <v>19.49</v>
       </c>
     </row>
-    <row r="58" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4">
         <v>597.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C58" s="4">
         <v>2164.0</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I58" s="12">
         <v>169.9</v>
@@ -4136,30 +4157,30 @@
         <v>205.58</v>
       </c>
     </row>
-    <row r="59" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4">
         <v>598.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C59" s="4">
         <v>2201.0</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I59" s="12">
         <v>222.51</v>
@@ -4177,30 +4198,30 @@
         <v>269.24</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4">
         <v>599.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C60" s="4">
         <v>2204.0</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I60" s="12">
         <v>3313.31</v>
@@ -4218,30 +4239,30 @@
         <v>4009.11</v>
       </c>
     </row>
-    <row r="61" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4">
         <v>600.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C61" s="4">
         <v>2245.0</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I61" s="12">
         <v>127.37</v>
@@ -4259,27 +4280,27 @@
         <v>154.12</v>
       </c>
     </row>
-    <row r="62" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4">
         <v>601.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C62" s="4">
         <v>2229.0</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I62" s="12">
         <v>221.59</v>
@@ -4297,27 +4318,27 @@
         <v>268.12</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4">
         <v>602.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C63" s="4">
         <v>2248.0</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I63" s="12">
         <v>24.35</v>
@@ -4335,30 +4356,30 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="64" ht="15.75" hidden="1" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4">
         <v>603.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C64" s="4">
         <v>2241.0</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I64" s="12">
         <v>452.5</v>
@@ -4376,30 +4397,30 @@
         <v>547.53</v>
       </c>
     </row>
-    <row r="65" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4">
         <v>604.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C65" s="4">
         <v>2203.0</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I65" s="12">
         <v>47.8</v>
@@ -4417,30 +4438,30 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4">
         <v>605.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C66" s="4">
         <v>2205.0</v>
       </c>
       <c r="D66" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="F66" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G66" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="I66" s="12">
         <v>31.76</v>
@@ -4458,30 +4479,30 @@
         <v>38.43</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4">
         <v>606.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C67" s="4">
         <v>2206.0</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="I67" s="12">
         <v>108.3</v>
@@ -4499,30 +4520,30 @@
         <v>131.04</v>
       </c>
     </row>
-    <row r="68" ht="15.75" hidden="1" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4">
         <v>607.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C68" s="4">
         <v>2246.0</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I68" s="12">
         <v>32.84</v>
@@ -4540,27 +4561,27 @@
         <v>39.74</v>
       </c>
     </row>
-    <row r="69" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4">
         <v>608.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C69" s="4">
         <v>2247.0</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I69" s="12">
         <v>65.33</v>
@@ -4578,33 +4599,33 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4">
         <v>609.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C70" s="4">
         <v>2232.0</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I70" s="12">
         <v>8.27</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K70" s="12">
         <v>0.83</v>
@@ -4616,21 +4637,21 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4">
         <v>610.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C71" s="4">
         <v>2236.0</v>
       </c>
       <c r="D71" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>29</v>
@@ -4657,30 +4678,30 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="72" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4">
         <v>611.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C72" s="4">
         <v>2237.0</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I72" s="12">
         <v>201.7</v>
@@ -4698,30 +4719,30 @@
         <v>244.06</v>
       </c>
     </row>
-    <row r="73" ht="15.75" hidden="1" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4">
         <v>612.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C73" s="4">
         <v>2238.0</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="I73" s="12">
         <v>279.38</v>
@@ -4739,30 +4760,30 @@
         <v>338.05</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4">
         <v>613.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C74" s="4">
         <v>2239.0</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="I74" s="12">
         <v>173.5</v>
@@ -4780,30 +4801,30 @@
         <v>209.94</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4">
         <v>614.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C75" s="4">
         <v>2240.0</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I75" s="12">
         <v>235.82</v>
@@ -4821,30 +4842,30 @@
         <v>285.34</v>
       </c>
     </row>
-    <row r="76" ht="15.75" hidden="1" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4">
         <v>615.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C76" s="4">
         <v>2242.0</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I76" s="12">
         <v>211.6</v>
@@ -4862,30 +4883,30 @@
         <v>256.04</v>
       </c>
     </row>
-    <row r="77" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4">
         <v>616.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C77" s="4">
         <v>2243.0</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I77" s="12">
         <v>309.8</v>
@@ -4903,33 +4924,33 @@
         <v>374.86</v>
       </c>
     </row>
-    <row r="78" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4">
         <v>617.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C78" s="4">
         <v>2251.0</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I78" s="12">
         <v>8.45</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K78" s="12">
         <v>0.85</v>
@@ -4941,30 +4962,30 @@
         <v>9.3</v>
       </c>
     </row>
-    <row r="79" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4">
         <v>618.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C79" s="4">
         <v>2244.0</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I79" s="12">
         <v>186.72</v>
@@ -4982,30 +5003,30 @@
         <v>225.93</v>
       </c>
     </row>
-    <row r="80" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4">
         <v>619.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C80" s="4">
         <v>2249.0</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I80" s="12">
         <v>318.69</v>
@@ -5023,30 +5044,30 @@
         <v>385.61</v>
       </c>
     </row>
-    <row r="81" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="4">
         <v>620.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C81" s="4">
         <v>2253.0</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G81" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I81" s="12">
         <v>-59.81</v>
@@ -5064,30 +5085,30 @@
         <v>-72.37</v>
       </c>
     </row>
-    <row r="82" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4">
         <v>621.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C82" s="4">
         <v>2263.0</v>
       </c>
       <c r="D82" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E82" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="F82" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G82" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I82" s="12">
         <v>138.9</v>
@@ -5105,33 +5126,33 @@
         <v>168.07</v>
       </c>
     </row>
-    <row r="83" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4">
         <v>622.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C83" s="4">
         <v>2280.0</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I83" s="12">
         <v>8.64</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K83" s="12">
         <v>0.86</v>
@@ -5143,30 +5164,30 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="84" ht="15.75" hidden="1" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4">
         <v>623.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C84" s="4">
         <v>2289.0</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I84" s="12">
         <v>102.36</v>
@@ -5184,30 +5205,30 @@
         <v>123.86</v>
       </c>
     </row>
-    <row r="85" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4">
         <v>624.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C85" s="4">
         <v>2290.0</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I85" s="12">
         <v>370.59</v>
@@ -5225,30 +5246,30 @@
         <v>448.41</v>
       </c>
     </row>
-    <row r="86" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4">
         <v>625.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C86" s="4">
         <v>2293.0</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I86" s="12">
         <v>851.66</v>
@@ -5266,30 +5287,30 @@
         <v>1030.51</v>
       </c>
     </row>
-    <row r="87" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4">
         <v>626.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C87" s="4">
         <v>2296.0</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G87" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I87" s="12">
         <v>56.86</v>
@@ -5307,21 +5328,21 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="88" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4">
         <v>627.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C88" s="4">
         <v>2364.0</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>33</v>
@@ -5348,30 +5369,30 @@
         <v>119.27</v>
       </c>
     </row>
-    <row r="89" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4">
         <v>628.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C89" s="4">
         <v>2404.0</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I89" s="12">
         <v>80.11</v>
@@ -5389,30 +5410,30 @@
         <v>96.93</v>
       </c>
     </row>
-    <row r="90" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4">
         <v>629.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C90" s="4">
         <v>2252.0</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I90" s="12">
         <v>224.95</v>
@@ -5430,30 +5451,30 @@
         <v>272.19</v>
       </c>
     </row>
-    <row r="91" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4">
         <v>630.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C91" s="4">
         <v>2286.0</v>
       </c>
       <c r="D91" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E91" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="F91" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I91" s="12">
         <v>72.36</v>
@@ -5471,30 +5492,30 @@
         <v>87.55</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4">
         <v>631.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C92" s="4">
         <v>2291.0</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I92" s="12">
         <v>292.72</v>
@@ -5512,30 +5533,30 @@
         <v>354.19</v>
       </c>
     </row>
-    <row r="93" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4">
         <v>632.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C93" s="4">
         <v>2292.0</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I93" s="12">
         <v>105.82</v>
@@ -5553,30 +5574,30 @@
         <v>128.04</v>
       </c>
     </row>
-    <row r="94" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4">
         <v>633.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C94" s="4">
         <v>2297.0</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I94" s="12">
         <v>242.31</v>
@@ -5594,30 +5615,30 @@
         <v>293.2</v>
       </c>
     </row>
-    <row r="95" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4">
         <v>634.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C95" s="4">
         <v>2298.0</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G95" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I95" s="12">
         <v>99.74</v>
@@ -5635,30 +5656,30 @@
         <v>120.68</v>
       </c>
     </row>
-    <row r="96" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4">
         <v>635.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C96" s="4">
         <v>2299.0</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G96" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I96" s="12">
         <v>14.93</v>
@@ -5676,30 +5697,30 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="97" ht="15.75" hidden="1" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4">
         <v>636.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C97" s="4">
         <v>2300.0</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G97" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I97" s="12">
         <v>26.55</v>
@@ -5717,21 +5738,21 @@
         <v>32.13</v>
       </c>
     </row>
-    <row r="98" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4">
         <v>637.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C98" s="4">
         <v>2902.0</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>29</v>
@@ -5758,30 +5779,30 @@
         <v>243.57</v>
       </c>
     </row>
-    <row r="99" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4">
         <v>638.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C99" s="4">
         <v>2301.0</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G99" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I99" s="12">
         <v>127.29</v>
@@ -5799,30 +5820,30 @@
         <v>154.02</v>
       </c>
     </row>
-    <row r="100" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4">
         <v>639.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C100" s="4">
         <v>2505.0</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I100" s="12">
         <v>47.39</v>
@@ -5840,21 +5861,21 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4">
         <v>640.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C101" s="4">
         <v>2281.0</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>29</v>
@@ -5881,30 +5902,30 @@
         <v>161.05</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4">
         <v>641.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C102" s="4">
         <v>2288.0</v>
       </c>
       <c r="D102" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="F102" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I102" s="12">
         <v>2732.31</v>
@@ -5922,33 +5943,33 @@
         <v>2896.25</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4">
         <v>642.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C103" s="4">
         <v>2294.0</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I103" s="12">
         <v>10.73</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K103" s="12">
         <v>1.07</v>
@@ -5960,30 +5981,30 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="104" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4">
         <v>643.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C104" s="4">
         <v>2359.0</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I104" s="12">
         <v>281.86</v>
@@ -6001,30 +6022,30 @@
         <v>341.05</v>
       </c>
     </row>
-    <row r="105" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="4">
         <v>644.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C105" s="4">
         <v>2360.0</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I105" s="12">
         <v>952.69</v>
@@ -6042,30 +6063,30 @@
         <v>1152.75</v>
       </c>
     </row>
-    <row r="106" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4">
         <v>645.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C106" s="4">
         <v>2958.0</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G106" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="I106" s="12">
         <v>147.68</v>
@@ -6083,30 +6104,30 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="107" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4">
         <v>646.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C107" s="4">
         <v>2354.0</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G107" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I107" s="12">
         <v>224.5</v>
@@ -6124,30 +6145,30 @@
         <v>271.65</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4">
         <v>647.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C108" s="4">
         <v>2355.0</v>
       </c>
       <c r="D108" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>341</v>
-      </c>
       <c r="F108" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I108" s="12">
         <v>129.9</v>
@@ -6165,33 +6186,33 @@
         <v>157.18</v>
       </c>
     </row>
-    <row r="109" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="4">
         <v>648.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C109" s="4">
         <v>2356.0</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I109" s="12">
         <v>17.91</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K109" s="12">
         <v>1.79</v>
@@ -6203,21 +6224,21 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4">
         <v>649.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C110" s="4">
         <v>2358.0</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>29</v>
@@ -6244,30 +6265,30 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="111" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="4">
         <v>650.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C111" s="4">
         <v>2362.0</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I111" s="12">
         <v>3.5</v>
@@ -6285,33 +6306,33 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="112" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="4">
         <v>651.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C112" s="4">
         <v>2357.0</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I112" s="12">
         <v>15.64</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K112" s="12">
         <v>1.56</v>
@@ -6323,30 +6344,30 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="113" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4">
         <v>652.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C113" s="4">
         <v>2361.0</v>
       </c>
       <c r="D113" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>354</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I113" s="12">
         <v>100.04</v>
@@ -6364,30 +6385,30 @@
         <v>100.04</v>
       </c>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="4">
         <v>653.0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C114" s="4">
         <v>2363.0</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G114" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="I114" s="12">
         <v>469.5</v>
@@ -6405,21 +6426,21 @@
         <v>568.1</v>
       </c>
     </row>
-    <row r="115" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="4">
         <v>654.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C115" s="4">
         <v>2365.0</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>33</v>
@@ -6446,30 +6467,30 @@
         <v>169.57</v>
       </c>
     </row>
-    <row r="116" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="4">
         <v>655.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C116" s="4">
         <v>2374.0</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I116" s="12">
         <v>257.88</v>
@@ -6487,30 +6508,30 @@
         <v>312.03</v>
       </c>
     </row>
-    <row r="117" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4">
         <v>656.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C117" s="4">
         <v>2375.0</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I117" s="12">
         <v>176.9</v>
@@ -6528,27 +6549,27 @@
         <v>214.05</v>
       </c>
     </row>
-    <row r="118" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4">
         <v>657.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C118" s="4">
         <v>2408.0</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I118" s="12">
         <v>80.19</v>
@@ -6566,30 +6587,30 @@
         <v>97.03</v>
       </c>
     </row>
-    <row r="119" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4">
         <v>658.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C119" s="4">
         <v>3172.0</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I119" s="12">
         <v>27.5</v>
@@ -6607,30 +6628,30 @@
         <v>29.15</v>
       </c>
     </row>
-    <row r="120" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4">
         <v>659.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C120" s="4">
         <v>2377.0</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G120" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H120" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="I120" s="12">
         <v>162.7</v>
@@ -6648,30 +6669,30 @@
         <v>162.7</v>
       </c>
     </row>
-    <row r="121" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4">
         <v>660.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C121" s="4">
         <v>2378.0</v>
       </c>
       <c r="D121" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E121" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E121" s="11" t="s">
-        <v>376</v>
-      </c>
       <c r="F121" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I121" s="12">
         <v>25.3</v>
@@ -6689,30 +6710,30 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="122" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="4">
         <v>661.0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C122" s="4">
         <v>2409.0</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I122" s="12">
         <v>173.77</v>
@@ -6730,30 +6751,30 @@
         <v>210.26</v>
       </c>
     </row>
-    <row r="123" ht="15.75" hidden="1" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4">
         <v>662.0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C123" s="4">
         <v>2410.0</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I123" s="12">
         <v>120.0</v>
@@ -6771,27 +6792,27 @@
         <v>145.2</v>
       </c>
     </row>
-    <row r="124" ht="15.75" hidden="1" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4">
         <v>663.0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C124" s="4">
         <v>2432.0</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I124" s="12">
         <v>5.37</v>
@@ -6809,30 +6830,30 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="125" ht="15.75" hidden="1" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4">
         <v>664.0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C125" s="4">
         <v>2376.0</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I125" s="12">
         <v>30.0</v>
@@ -6850,30 +6871,30 @@
         <v>36.3</v>
       </c>
     </row>
-    <row r="126" ht="15.75" hidden="1" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4">
         <v>665.0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C126" s="4">
         <v>2402.0</v>
       </c>
       <c r="D126" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="E126" s="11" t="s">
-        <v>387</v>
-      </c>
       <c r="F126" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G126" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I126" s="12">
         <v>35.6</v>
@@ -6891,21 +6912,21 @@
         <v>43.08</v>
       </c>
     </row>
-    <row r="127" ht="15.75" hidden="1" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4">
         <v>666.0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C127" s="4">
         <v>2403.0</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>29</v>
@@ -6932,30 +6953,30 @@
         <v>293.23</v>
       </c>
     </row>
-    <row r="128" ht="15.75" hidden="1" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4">
         <v>667.0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C128" s="4">
         <v>2406.0</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I128" s="12">
         <v>17.0</v>
@@ -6973,30 +6994,30 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="129" ht="15.75" hidden="1" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4">
         <v>668.0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C129" s="4">
         <v>2413.0</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I129" s="12">
         <v>2.05</v>
@@ -7014,30 +7035,30 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="130" ht="15.75" hidden="1" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4">
         <v>669.0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C130" s="4">
         <v>2414.0</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I130" s="12">
         <v>1934.65</v>
@@ -7055,30 +7076,30 @@
         <v>2340.93</v>
       </c>
     </row>
-    <row r="131" ht="15.75" hidden="1" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4">
         <v>670.0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C131" s="4">
         <v>2415.0</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I131" s="12">
         <v>8.53</v>
@@ -7096,30 +7117,30 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="132" ht="15.75" hidden="1" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="4">
         <v>671.0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C132" s="4">
         <v>2435.0</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I132" s="12">
         <v>127.04</v>
@@ -7137,30 +7158,30 @@
         <v>153.72</v>
       </c>
     </row>
-    <row r="133" ht="15.75" hidden="1" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4">
         <v>672.0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C133" s="4">
         <v>2438.0</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G133" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H133" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="I133" s="12">
         <v>42.55</v>
@@ -7178,30 +7199,30 @@
         <v>51.49</v>
       </c>
     </row>
-    <row r="134" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4">
         <v>673.0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C134" s="4">
         <v>2523.0</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I134" s="12">
         <v>111.24</v>
@@ -7219,30 +7240,30 @@
         <v>134.6</v>
       </c>
     </row>
-    <row r="135" ht="15.75" hidden="1" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4">
         <v>674.0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C135" s="4">
         <v>2434.0</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I135" s="12">
         <v>41.09</v>
@@ -7260,27 +7281,27 @@
         <v>49.72</v>
       </c>
     </row>
-    <row r="136" ht="15.75" hidden="1" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4">
         <v>675.0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C136" s="4">
         <v>2437.0</v>
       </c>
       <c r="D136" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E136" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="E136" s="11" t="s">
-        <v>413</v>
-      </c>
       <c r="F136" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I136" s="12">
         <v>11.31</v>
@@ -7298,30 +7319,30 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="137" ht="15.75" hidden="1" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="4">
         <v>676.0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C137" s="4">
         <v>2479.0</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I137" s="12">
         <v>751.14</v>
@@ -7339,30 +7360,30 @@
         <v>908.88</v>
       </c>
     </row>
-    <row r="138" ht="15.75" hidden="1" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4">
         <v>677.0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C138" s="4">
         <v>2480.0</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I138" s="12">
         <v>180.8</v>
@@ -7380,30 +7401,30 @@
         <v>218.77</v>
       </c>
     </row>
-    <row r="139" ht="15.75" hidden="1" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="4">
         <v>678.0</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C139" s="4">
         <v>2477.0</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I139" s="12">
         <v>430.06</v>
@@ -7421,30 +7442,30 @@
         <v>520.37</v>
       </c>
     </row>
-    <row r="140" ht="15.75" hidden="1" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4">
         <v>679.0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C140" s="4">
         <v>2478.0</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I140" s="12">
         <v>139.22</v>
@@ -7462,33 +7483,33 @@
         <v>168.46</v>
       </c>
     </row>
-    <row r="141" ht="15.75" hidden="1" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4">
         <v>680.0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C141" s="4">
         <v>2481.0</v>
       </c>
       <c r="D141" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="E141" s="11" t="s">
-        <v>425</v>
-      </c>
       <c r="F141" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I141" s="12">
         <v>6.27</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141" s="12">
         <v>0.63</v>
@@ -7500,30 +7521,30 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="142" ht="15.75" hidden="1" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="4">
         <v>681.0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C142" s="4">
         <v>2482.0</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I142" s="12">
         <v>-33.91</v>
@@ -7541,30 +7562,30 @@
         <v>-41.03</v>
       </c>
     </row>
-    <row r="143" ht="15.75" hidden="1" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="4">
         <v>682.0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C143" s="4">
         <v>2483.0</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I143" s="12">
         <v>19.24</v>
@@ -7582,30 +7603,30 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="144" ht="15.75" hidden="1" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="4">
         <v>683.0</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C144" s="4">
         <v>2484.0</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I144" s="12">
         <v>6900.51</v>
@@ -7623,30 +7644,30 @@
         <v>8349.62</v>
       </c>
     </row>
-    <row r="145" ht="15.75" hidden="1" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="4">
         <v>684.0</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C145" s="4">
         <v>2506.0</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I145" s="12">
         <v>62.4</v>
@@ -7664,21 +7685,21 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="146" ht="15.75" hidden="1" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4">
         <v>685.0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C146" s="4">
         <v>2509.0</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>33</v>
@@ -7705,30 +7726,30 @@
         <v>51.68</v>
       </c>
     </row>
-    <row r="147" ht="15.75" hidden="1" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4">
         <v>686.0</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C147" s="4">
         <v>2525.0</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I147" s="12">
         <v>20.16</v>
@@ -7746,30 +7767,30 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="148" ht="15.75" hidden="1" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4">
         <v>687.0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C148" s="4">
         <v>2526.0</v>
       </c>
       <c r="D148" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H148" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="I148" s="12">
         <v>2.14</v>
@@ -7787,30 +7808,30 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="149" ht="15.75" hidden="1" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4">
         <v>688.0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C149" s="4">
         <v>2527.0</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I149" s="12">
         <v>2391.73</v>
@@ -7832,23 +7853,26 @@
       <c r="A150" s="4">
         <v>689.0</v>
       </c>
+      <c r="B150" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="C150" s="4">
         <v>2546.0</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I150" s="12">
         <v>1290.25</v>
@@ -7866,30 +7890,30 @@
         <v>1561.2</v>
       </c>
     </row>
-    <row r="151" ht="15.75" hidden="1" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="4">
         <v>690.0</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C151" s="4">
         <v>2608.0</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I151" s="12">
         <v>3576.99</v>
@@ -7907,30 +7931,30 @@
         <v>4328.16</v>
       </c>
     </row>
-    <row r="152" ht="15.75" hidden="1" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="4">
         <v>691.0</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C152" s="4">
         <v>2610.0</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I152" s="12">
         <v>1357.09</v>
@@ -7948,30 +7972,30 @@
         <v>1642.08</v>
       </c>
     </row>
-    <row r="153" ht="15.75" hidden="1" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="4">
         <v>692.0</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C153" s="4">
         <v>2611.0</v>
       </c>
       <c r="D153" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G153" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="E153" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="H153" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I153" s="12">
         <v>54.0</v>
@@ -7989,30 +8013,30 @@
         <v>65.34</v>
       </c>
     </row>
-    <row r="154" ht="15.75" hidden="1" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="4">
         <v>693.0</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C154" s="4">
         <v>2612.0</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I154" s="12">
         <v>163.82</v>
@@ -8034,23 +8058,26 @@
       <c r="A155" s="4">
         <v>694.0</v>
       </c>
+      <c r="B155" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="C155" s="4">
         <v>2771.0</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I155" s="12">
         <v>457.53</v>
@@ -8072,23 +8099,26 @@
       <c r="A156" s="4">
         <v>695.0</v>
       </c>
+      <c r="B156" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="C156" s="4">
         <v>2803.0</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="I156" s="12">
         <v>422.37</v>
@@ -8106,30 +8136,30 @@
         <v>511.07</v>
       </c>
     </row>
-    <row r="157" ht="15.75" hidden="1" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="4">
         <v>696.0</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C157" s="4">
         <v>2853.0</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I157" s="12">
         <v>69.88</v>
@@ -8147,21 +8177,21 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="158" ht="15.75" hidden="1" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="4">
         <v>697.0</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C158" s="4">
         <v>3130.0</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>29</v>
@@ -9018,11 +9048,7 @@
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$158">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$Z$158"/>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
